--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-04_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-04_valid.xlsx
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>246</v>
+        <v>438</v>
       </c>
       <c r="O62">
         <v>5605</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="AZ62">
-        <v>461.25</v>
+        <v>821.25</v>
       </c>
       <c r="BA62">
         <v>1044.409937888199</v>
@@ -20931,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="CL62">
-        <v>0.5426470588235294</v>
+        <v>0.9661764705882353</v>
       </c>
       <c r="CM62">
         <v>1.305512422360248</v>
@@ -20976,7 +20976,7 @@
         <v>0</v>
       </c>
       <c r="DA62">
-        <v>0.9915365386660991</v>
+        <v>1.016044569726625</v>
       </c>
     </row>
     <row r="63" spans="1:105">
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>7057</v>
+        <v>7070</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -24938,7 +24938,7 @@
         <v>0</v>
       </c>
       <c r="AZ75">
-        <v>794.4090056285179</v>
+        <v>795.8724202626643</v>
       </c>
       <c r="BA75">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="CL75">
-        <v>0.9345988301511975</v>
+        <v>0.9363204944266639</v>
       </c>
       <c r="CM75">
         <v>0</v>
@@ -25097,7 +25097,7 @@
         <v>0</v>
       </c>
       <c r="DA75">
-        <v>0.892953431372549</v>
+        <v>0.8945465686274511</v>
       </c>
     </row>
     <row r="76" spans="1:105">
